--- a/Artist Information_test.xlsx
+++ b/Artist Information_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinopia/PythonProjects/ArtBusan/ArtBusan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3A625-8B2B-A04D-8234-AF73EE46BBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D501369F-FA5E-0C46-8CD9-EF7C9BE933AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="4880" windowWidth="31320" windowHeight="24900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64000" yWindow="15080" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
@@ -31,9 +31,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>부스넘버 (ex.B-25)</t>
   </si>
   <si>
     <t>참여작가(영문)</t>
@@ -52317,6 +52314,10 @@
   </si>
   <si>
     <t>참여작가(국문)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스넘버</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -52798,11 +52799,11 @@
   <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -52826,34 +52827,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -52876,34 +52877,34 @@
     <row r="2" spans="1:28" ht="409.6">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6">
         <v>1981</v>
       </c>
       <c r="H2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -52926,34 +52927,34 @@
     <row r="3" spans="1:28" ht="285">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6">
         <v>1981</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="J3" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -52976,34 +52977,34 @@
     <row r="4" spans="1:28" ht="384">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="6">
         <v>1981</v>
       </c>
       <c r="H4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>30</v>
-      </c>
       <c r="J4" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -53026,34 +53027,34 @@
     <row r="5" spans="1:28" ht="409.6">
       <c r="A5" s="16"/>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="15">
         <v>1984</v>
       </c>
       <c r="H5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
@@ -53076,34 +53077,34 @@
     <row r="6" spans="1:28" ht="409.6">
       <c r="A6" s="16"/>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="15">
         <v>1984</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -53126,34 +53127,34 @@
     <row r="7" spans="1:28" ht="409.6">
       <c r="A7" s="16"/>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="15">
         <v>1984</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -53176,34 +53177,34 @@
     <row r="8" spans="1:28" ht="409.6">
       <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="15">
         <v>1984</v>
       </c>
       <c r="H8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>38</v>
-      </c>
       <c r="J8" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -53226,34 +53227,34 @@
     <row r="9" spans="1:28" ht="409.6">
       <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="15">
         <v>1973</v>
       </c>
       <c r="H9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="J9" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
@@ -53276,34 +53277,34 @@
     <row r="10" spans="1:28" ht="140">
       <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="15">
         <v>1973</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
@@ -53326,34 +53327,34 @@
     <row r="11" spans="1:28" ht="238">
       <c r="A11" s="16"/>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="15">
         <v>1973</v>
       </c>
       <c r="H11" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>44</v>
-      </c>
       <c r="J11" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
